--- a/data/pca/factorExposure/factorExposure_2009-02-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-02-03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +714,42 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01654915167439271</v>
+        <v>0.01513681767339537</v>
       </c>
       <c r="C2">
-        <v>-0.01067332869535264</v>
+        <v>0.01176202740887025</v>
       </c>
       <c r="D2">
-        <v>0.01411474407232344</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.01420641904081002</v>
+      </c>
+      <c r="E2">
+        <v>0.0003032581993668108</v>
+      </c>
+      <c r="F2">
+        <v>-0.008442107823350826</v>
+      </c>
+      <c r="G2">
+        <v>-0.01793293060959311</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +760,364 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.08131064302385539</v>
+        <v>0.08377207636816868</v>
       </c>
       <c r="C4">
-        <v>-0.08007597132857799</v>
+        <v>0.08656702000248144</v>
       </c>
       <c r="D4">
-        <v>-0.06584005012718232</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.06593697546119057</v>
+      </c>
+      <c r="E4">
+        <v>-0.006209677457058506</v>
+      </c>
+      <c r="F4">
+        <v>-0.03971434866344448</v>
+      </c>
+      <c r="G4">
+        <v>-0.03234204883762423</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.003125689976717576</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.002035429169487195</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>-0.0009511399603640667</v>
+      </c>
+      <c r="E5">
+        <v>0.002149826742689644</v>
+      </c>
+      <c r="F5">
+        <v>0.002851553442494961</v>
+      </c>
+      <c r="G5">
+        <v>0.002471702331596754</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1676825231583305</v>
+        <v>0.1699807859625108</v>
       </c>
       <c r="C6">
-        <v>0.0182460939380279</v>
+        <v>-0.009998388475616838</v>
       </c>
       <c r="D6">
-        <v>-0.05740549874180916</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.06002088173790375</v>
+      </c>
+      <c r="E6">
+        <v>-0.02331710946325124</v>
+      </c>
+      <c r="F6">
+        <v>0.05457719454959537</v>
+      </c>
+      <c r="G6">
+        <v>0.007508039051685487</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.0553491670763171</v>
+        <v>0.05937368233293441</v>
       </c>
       <c r="C7">
-        <v>-0.0583238509348069</v>
+        <v>0.06322271476634979</v>
       </c>
       <c r="D7">
-        <v>-0.0434484229710261</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05268863413964604</v>
+      </c>
+      <c r="E7">
+        <v>-0.04078786879428823</v>
+      </c>
+      <c r="F7">
+        <v>-0.06787794446867057</v>
+      </c>
+      <c r="G7">
+        <v>-0.0432830189925538</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.05514841702730559</v>
+        <v>0.05176297893254007</v>
       </c>
       <c r="C8">
-        <v>-0.04492412223887649</v>
+        <v>0.04596266732802668</v>
       </c>
       <c r="D8">
-        <v>0.01979654633015165</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.02216276469283441</v>
+      </c>
+      <c r="E8">
+        <v>0.02839990029203725</v>
+      </c>
+      <c r="F8">
+        <v>-0.04403135537032306</v>
+      </c>
+      <c r="G8">
+        <v>0.0007607767265418985</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.06090870894113727</v>
+        <v>0.06455273112133943</v>
       </c>
       <c r="C9">
-        <v>-0.08708008265288206</v>
+        <v>0.09126630966900634</v>
       </c>
       <c r="D9">
-        <v>-0.09089579735997952</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08769858319224613</v>
+      </c>
+      <c r="E9">
+        <v>-0.01144873451184513</v>
+      </c>
+      <c r="F9">
+        <v>-0.066144251595635</v>
+      </c>
+      <c r="G9">
+        <v>-0.006848670600694171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1086647018003205</v>
+        <v>0.100606590328609</v>
       </c>
       <c r="C10">
-        <v>0.1468578657849531</v>
+        <v>-0.1396440545248986</v>
       </c>
       <c r="D10">
-        <v>0.1071894082091956</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.09629829931296861</v>
+      </c>
+      <c r="E10">
+        <v>0.004582067360673439</v>
+      </c>
+      <c r="F10">
+        <v>-0.03701845709667186</v>
+      </c>
+      <c r="G10">
+        <v>0.009178968979905493</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.07902105075651784</v>
+        <v>0.07698981296334755</v>
       </c>
       <c r="C11">
-        <v>-0.1286917504059439</v>
+        <v>0.128856114056391</v>
       </c>
       <c r="D11">
-        <v>-0.0585550073274913</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.04926899400358475</v>
+      </c>
+      <c r="E11">
+        <v>0.01740619503016414</v>
+      </c>
+      <c r="F11">
+        <v>-0.07845471884640702</v>
+      </c>
+      <c r="G11">
+        <v>-0.008998315546523292</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.08285660357906237</v>
+        <v>0.0789354690387828</v>
       </c>
       <c r="C12">
-        <v>-0.1475864467699689</v>
+        <v>0.1493930382068247</v>
       </c>
       <c r="D12">
-        <v>-0.06135062668052652</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.0569141801163612</v>
+      </c>
+      <c r="E12">
+        <v>0.00952219944557528</v>
+      </c>
+      <c r="F12">
+        <v>-0.08433534449768895</v>
+      </c>
+      <c r="G12">
+        <v>-0.01232480119026887</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.04204339111053151</v>
+        <v>0.04245956922418399</v>
       </c>
       <c r="C13">
-        <v>-0.06489461223829032</v>
+        <v>0.0718417315421094</v>
       </c>
       <c r="D13">
-        <v>-0.02967052546737768</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.03019414227009493</v>
+      </c>
+      <c r="E13">
+        <v>-0.004031963267763763</v>
+      </c>
+      <c r="F13">
+        <v>-0.0771118579685732</v>
+      </c>
+      <c r="G13">
+        <v>-0.01471968543566186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.01941805849666824</v>
+        <v>0.02303193487669468</v>
       </c>
       <c r="C14">
-        <v>-0.04242075401765144</v>
+        <v>0.04267098786107796</v>
       </c>
       <c r="D14">
-        <v>-0.04959077234182935</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.04558880630566318</v>
+      </c>
+      <c r="E14">
+        <v>0.01223645514325872</v>
+      </c>
+      <c r="F14">
+        <v>-0.08268684099156817</v>
+      </c>
+      <c r="G14">
+        <v>0.000870078748109042</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0.03150843728115725</v>
+        <v>0.03377788434294311</v>
       </c>
       <c r="C15">
-        <v>-0.0564154859576189</v>
+        <v>0.05568507652335636</v>
       </c>
       <c r="D15">
-        <v>-0.04531224928335439</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04120506037901049</v>
+      </c>
+      <c r="E15">
+        <v>-0.01034916010211323</v>
+      </c>
+      <c r="F15">
+        <v>-0.03382417788599239</v>
+      </c>
+      <c r="G15">
+        <v>0.009637519823559194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.05767366582598559</v>
+        <v>0.05789795494461332</v>
       </c>
       <c r="C16">
-        <v>-0.1437540518617108</v>
+        <v>0.1440651739310555</v>
       </c>
       <c r="D16">
-        <v>-0.07119478643738106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06121516195061622</v>
+      </c>
+      <c r="E16">
+        <v>0.03340335049133122</v>
+      </c>
+      <c r="F16">
+        <v>-0.07843515226361678</v>
+      </c>
+      <c r="G16">
+        <v>-0.01249370796161867</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.005235340014399258</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.004770856550078286</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.0007107832348982414</v>
+      </c>
+      <c r="E17">
+        <v>0.009330639134271486</v>
+      </c>
+      <c r="F17">
+        <v>0.006026246885236747</v>
+      </c>
+      <c r="G17">
+        <v>0.01527973690427196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>0.03567805745274031</v>
+        <v>0.05164039890065029</v>
       </c>
       <c r="C18">
-        <v>-0.04439985102036295</v>
+        <v>0.04013390514678523</v>
       </c>
       <c r="D18">
-        <v>0.004083989540950171</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.009079065471883066</v>
+      </c>
+      <c r="E18">
+        <v>0.00360756373340258</v>
+      </c>
+      <c r="F18">
+        <v>0.04759527987493686</v>
+      </c>
+      <c r="G18">
+        <v>0.01142650011138225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1128,180 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.056161722756555</v>
+        <v>0.05657729584363455</v>
       </c>
       <c r="C20">
-        <v>-0.09342373195006873</v>
+        <v>0.09285652628997193</v>
       </c>
       <c r="D20">
-        <v>-0.07905235360304712</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07471106804299232</v>
+      </c>
+      <c r="E20">
+        <v>0.01699551276589658</v>
+      </c>
+      <c r="F20">
+        <v>-0.0757320391644115</v>
+      </c>
+      <c r="G20">
+        <v>0.002365952320409853</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.04252936542659148</v>
+        <v>0.04456782095818292</v>
       </c>
       <c r="C21">
-        <v>-0.05694547768682461</v>
+        <v>0.05481918438169892</v>
       </c>
       <c r="D21">
-        <v>-0.003135252640266356</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.001422502324287923</v>
+      </c>
+      <c r="E21">
+        <v>-0.005083055305487236</v>
+      </c>
+      <c r="F21">
+        <v>-0.07589778985553049</v>
+      </c>
+      <c r="G21">
+        <v>-0.02655489520594514</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.04501752106306834</v>
+        <v>0.043760651628389</v>
       </c>
       <c r="C22">
-        <v>-0.02094589641606035</v>
+        <v>0.0229429402262252</v>
       </c>
       <c r="D22">
-        <v>0.00830246711213518</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.03125229065228441</v>
+      </c>
+      <c r="E22">
+        <v>0.1326659602135002</v>
+      </c>
+      <c r="F22">
+        <v>0.03411394124386501</v>
+      </c>
+      <c r="G22">
+        <v>-0.006660758927282596</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.04502695082165313</v>
+        <v>0.04376866844337712</v>
       </c>
       <c r="C23">
-        <v>-0.02093817527897072</v>
+        <v>0.02293625863897324</v>
       </c>
       <c r="D23">
-        <v>0.008326540099061377</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.03127985401472528</v>
+      </c>
+      <c r="E23">
+        <v>0.1327023114659534</v>
+      </c>
+      <c r="F23">
+        <v>0.03410822149516168</v>
+      </c>
+      <c r="G23">
+        <v>-0.006623529713857271</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.06710314922786116</v>
+        <v>0.06651553515144688</v>
       </c>
       <c r="C24">
-        <v>-0.1371006497998213</v>
+        <v>0.1357986070220037</v>
       </c>
       <c r="D24">
-        <v>-0.06281561871002321</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.05602429265633616</v>
+      </c>
+      <c r="E24">
+        <v>0.01250484015475905</v>
+      </c>
+      <c r="F24">
+        <v>-0.07521706243476566</v>
+      </c>
+      <c r="G24">
+        <v>-0.01288658290799432</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.07250637056932734</v>
+        <v>0.07084702871242528</v>
       </c>
       <c r="C25">
-        <v>-0.1209474290536283</v>
+        <v>0.119535472605491</v>
       </c>
       <c r="D25">
-        <v>-0.04599050429534785</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.03766893337306211</v>
+      </c>
+      <c r="E25">
+        <v>-0.01545226107673158</v>
+      </c>
+      <c r="F25">
+        <v>-0.0906571046373241</v>
+      </c>
+      <c r="G25">
+        <v>-0.01802852221704047</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.0558045612090855</v>
+        <v>0.06051912483095545</v>
       </c>
       <c r="C26">
-        <v>-0.06688116120365561</v>
+        <v>0.06769781250831658</v>
       </c>
       <c r="D26">
-        <v>-0.02699582081899826</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02197846819488549</v>
+      </c>
+      <c r="E26">
+        <v>0.01322095188445307</v>
+      </c>
+      <c r="F26">
+        <v>-0.08083263816050086</v>
+      </c>
+      <c r="G26">
+        <v>-0.0002028040235887415</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1312,249 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1704501477614497</v>
+        <v>0.1727788971862772</v>
       </c>
       <c r="C28">
-        <v>0.2277284659843593</v>
+        <v>-0.2289594233066528</v>
       </c>
       <c r="D28">
-        <v>0.02602717800521413</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.02975597964734684</v>
+      </c>
+      <c r="E28">
+        <v>-0.05924197744585874</v>
+      </c>
+      <c r="F28">
+        <v>-0.1340151423452025</v>
+      </c>
+      <c r="G28">
+        <v>0.002112289926275416</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.0241741317760223</v>
+        <v>0.02736929594478453</v>
       </c>
       <c r="C29">
-        <v>-0.04656449617977677</v>
+        <v>0.04407878922355753</v>
       </c>
       <c r="D29">
-        <v>-0.0113328185903259</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.007656142907744536</v>
+      </c>
+      <c r="E29">
+        <v>0.02858044113240537</v>
+      </c>
+      <c r="F29">
+        <v>-0.07493153033227463</v>
+      </c>
+      <c r="G29">
+        <v>-0.001629875172267558</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.03984364628626962</v>
+        <v>0.04190936176650276</v>
       </c>
       <c r="C30">
-        <v>-0.06927410885524647</v>
+        <v>0.07661429382609833</v>
       </c>
       <c r="D30">
-        <v>-0.119595001355001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1075629159263674</v>
+      </c>
+      <c r="E30">
+        <v>-0.06544345591036768</v>
+      </c>
+      <c r="F30">
+        <v>-0.08442673668516799</v>
+      </c>
+      <c r="G30">
+        <v>0.0180923061434014</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.05207809518130479</v>
+        <v>0.05144806271734764</v>
       </c>
       <c r="C31">
-        <v>-0.03166120059671015</v>
+        <v>0.03486650524153363</v>
       </c>
       <c r="D31">
-        <v>-0.01478033871413446</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.01625784827082833</v>
+      </c>
+      <c r="E31">
+        <v>0.03544359117723216</v>
+      </c>
+      <c r="F31">
+        <v>-0.0151093161141471</v>
+      </c>
+      <c r="G31">
+        <v>-0.02570633019426641</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.04294864938965486</v>
+        <v>0.04773480542510607</v>
       </c>
       <c r="C32">
-        <v>-0.04808033635259001</v>
+        <v>0.04484588166740903</v>
       </c>
       <c r="D32">
-        <v>-0.02416888069887294</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.02375767663266684</v>
+      </c>
+      <c r="E32">
+        <v>0.03097528219498795</v>
+      </c>
+      <c r="F32">
+        <v>-0.004955786730440213</v>
+      </c>
+      <c r="G32">
+        <v>0.005434179113772994</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.0787187392888644</v>
+        <v>0.08246103639197977</v>
       </c>
       <c r="C33">
-        <v>-0.1075538591272463</v>
+        <v>0.1171746083140855</v>
       </c>
       <c r="D33">
-        <v>-0.06841885784124103</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.06784519292176222</v>
+      </c>
+      <c r="E33">
+        <v>0.0193384840057646</v>
+      </c>
+      <c r="F33">
+        <v>-0.07761466280374209</v>
+      </c>
+      <c r="G33">
+        <v>-0.006446972183334268</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05534451709541312</v>
+        <v>0.05523297850983112</v>
       </c>
       <c r="C34">
-        <v>-0.1221341523942968</v>
+        <v>0.1240956040475986</v>
       </c>
       <c r="D34">
-        <v>-0.08091078692538044</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.06694610306112048</v>
+      </c>
+      <c r="E34">
+        <v>-0.02003364185717097</v>
+      </c>
+      <c r="F34">
+        <v>-0.09065518463803127</v>
+      </c>
+      <c r="G34">
+        <v>0.01708388500225512</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0.02743231891951704</v>
+        <v>0.0292600370612201</v>
       </c>
       <c r="C35">
-        <v>-0.01586156065995756</v>
+        <v>0.01689224906375564</v>
       </c>
       <c r="D35">
-        <v>-0.02701439709346344</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.02129011768953353</v>
+      </c>
+      <c r="E35">
+        <v>0.0230647600853854</v>
+      </c>
+      <c r="F35">
+        <v>-0.03624560906687317</v>
+      </c>
+      <c r="G35">
+        <v>0.02582614431584674</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.02260562123669492</v>
+        <v>0.02735670558522787</v>
       </c>
       <c r="C36">
-        <v>-0.04742461353389756</v>
+        <v>0.0481026524187368</v>
       </c>
       <c r="D36">
-        <v>-0.06637582090765878</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.05581662468264953</v>
+      </c>
+      <c r="E36">
+        <v>0.01549681838826006</v>
+      </c>
+      <c r="F36">
+        <v>-0.03911093067997432</v>
+      </c>
+      <c r="G36">
+        <v>0.07936145215602224</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.003550510638799993</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.006484573354769043</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.0006498341026362015</v>
+      </c>
+      <c r="E37">
+        <v>0.001906924558110227</v>
+      </c>
+      <c r="F37">
+        <v>-0.01016621259523396</v>
+      </c>
+      <c r="G37">
+        <v>-0.006513696232356537</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1565,88 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.08451425807007545</v>
+        <v>0.0788183346403368</v>
       </c>
       <c r="C39">
-        <v>-0.1522860135132824</v>
+        <v>0.1476183621931685</v>
       </c>
       <c r="D39">
-        <v>-0.04593605837467488</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.03782558287920999</v>
+      </c>
+      <c r="E39">
+        <v>0.01936864667038361</v>
+      </c>
+      <c r="F39">
+        <v>-0.1214500366011018</v>
+      </c>
+      <c r="G39">
+        <v>-0.05251359715519587</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.04591405916458172</v>
+        <v>0.0504214635255654</v>
       </c>
       <c r="C40">
-        <v>-0.06100297983928853</v>
+        <v>0.06548077881436921</v>
       </c>
       <c r="D40">
-        <v>-0.01609534846478531</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.005249959790893426</v>
+      </c>
+      <c r="E40">
+        <v>0.0111856448401417</v>
+      </c>
+      <c r="F40">
+        <v>-0.06156478096769339</v>
+      </c>
+      <c r="G40">
+        <v>0.03845376758010741</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.02669338553845276</v>
+        <v>0.02864925549979796</v>
       </c>
       <c r="C41">
-        <v>-0.02091916969116716</v>
+        <v>0.02190630241514149</v>
       </c>
       <c r="D41">
-        <v>0.007247612199973345</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.006491540063469734</v>
+      </c>
+      <c r="E41">
+        <v>0.009032038499318981</v>
+      </c>
+      <c r="F41">
+        <v>0.0121199071611147</v>
+      </c>
+      <c r="G41">
+        <v>0.01313149902293877</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,122 +1657,203 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.04232721866299072</v>
+        <v>0.04182146671261573</v>
       </c>
       <c r="C43">
-        <v>-0.03823325473548005</v>
+        <v>0.0361422531265597</v>
       </c>
       <c r="D43">
-        <v>-0.003428200920856352</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.001048820014903</v>
+      </c>
+      <c r="E43">
+        <v>0.03102357880905332</v>
+      </c>
+      <c r="F43">
+        <v>-0.02252339135880268</v>
+      </c>
+      <c r="G43">
+        <v>-0.003272745790033729</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.05666368301687048</v>
+        <v>0.06451216317354101</v>
       </c>
       <c r="C44">
-        <v>-0.07923370434846963</v>
+        <v>0.08570344672983289</v>
       </c>
       <c r="D44">
-        <v>-0.2762378206785296</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.2552145892698597</v>
+      </c>
+      <c r="E44">
+        <v>-0.04127522820996384</v>
+      </c>
+      <c r="F44">
+        <v>-0.1763647859390583</v>
+      </c>
+      <c r="G44">
+        <v>0.1638932376154297</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-0.0004086549850906486</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>0.001006082680646991</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>-0.0006081157064574996</v>
+      </c>
+      <c r="E45">
+        <v>-0.001536362406285029</v>
+      </c>
+      <c r="F45">
+        <v>-0.0002721251467803217</v>
+      </c>
+      <c r="G45">
+        <v>-0.004518661721526984</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.02761428658583094</v>
+        <v>0.02759641178636315</v>
       </c>
       <c r="C46">
-        <v>-0.03230993225269866</v>
+        <v>0.03120022309185849</v>
       </c>
       <c r="D46">
-        <v>-0.01340128412490924</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01053170717809554</v>
+      </c>
+      <c r="E46">
+        <v>0.0438870586366895</v>
+      </c>
+      <c r="F46">
+        <v>-0.06579223403071015</v>
+      </c>
+      <c r="G46">
+        <v>-0.03150228334475712</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.05144424444940136</v>
+        <v>0.05085649167097198</v>
       </c>
       <c r="C47">
-        <v>-0.02281666122250861</v>
+        <v>0.02582551206851452</v>
       </c>
       <c r="D47">
-        <v>0.01873576995682198</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.0125493459378398</v>
+      </c>
+      <c r="E47">
+        <v>0.0572873768797777</v>
+      </c>
+      <c r="F47">
+        <v>0.01356842438848685</v>
+      </c>
+      <c r="G47">
+        <v>-0.03135887720394581</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.04687463910617631</v>
+        <v>0.05019669953973729</v>
       </c>
       <c r="C48">
-        <v>-0.06764960568373454</v>
+        <v>0.0665956098060683</v>
       </c>
       <c r="D48">
-        <v>-0.02312025605007882</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.02077330087690812</v>
+      </c>
+      <c r="E48">
+        <v>-0.01458342425840812</v>
+      </c>
+      <c r="F48">
+        <v>-0.05712947187376474</v>
+      </c>
+      <c r="G48">
+        <v>-0.02447516146029569</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>0.1943505342353952</v>
+        <v>0.197342987808597</v>
       </c>
       <c r="C49">
-        <v>0.01051609010319039</v>
+        <v>-0.00308290002616516</v>
       </c>
       <c r="D49">
-        <v>-0.03015469555781313</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.04112849719980385</v>
+      </c>
+      <c r="E49">
+        <v>-0.03268179701530936</v>
+      </c>
+      <c r="F49">
+        <v>0.05575073756665738</v>
+      </c>
+      <c r="G49">
+        <v>0.000267555598568587</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.05040154275226313</v>
+        <v>0.0518720698783716</v>
       </c>
       <c r="C50">
-        <v>-0.02907429983877619</v>
+        <v>0.03221077542331868</v>
       </c>
       <c r="D50">
-        <v>-0.02303455787646439</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02635792015608159</v>
+      </c>
+      <c r="E50">
+        <v>0.02515545173195416</v>
+      </c>
+      <c r="F50">
+        <v>-0.008356583463975638</v>
+      </c>
+      <c r="G50">
+        <v>-0.02471316007488623</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1864,134 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>0.1443331241711174</v>
+        <v>0.1377748257631679</v>
       </c>
       <c r="C52">
-        <v>-0.0346258712947561</v>
+        <v>0.03492521404859725</v>
       </c>
       <c r="D52">
-        <v>-0.05938676608466164</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.05824528606354847</v>
+      </c>
+      <c r="E52">
+        <v>0.02223895549443168</v>
+      </c>
+      <c r="F52">
+        <v>0.0699640843872335</v>
+      </c>
+      <c r="G52">
+        <v>-0.03074331975999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.1745180238900945</v>
+        <v>0.165647185023432</v>
       </c>
       <c r="C53">
-        <v>-0.001044862389501922</v>
+        <v>0.004319433420054535</v>
       </c>
       <c r="D53">
-        <v>-0.1000560748690635</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.1064931260978683</v>
+      </c>
+      <c r="E53">
+        <v>0.009157137756495173</v>
+      </c>
+      <c r="F53">
+        <v>0.1120977207930477</v>
+      </c>
+      <c r="G53">
+        <v>-0.06294931679728996</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.009950286355106164</v>
+        <v>0.01392641188924213</v>
       </c>
       <c r="C54">
-        <v>-0.03010852277837686</v>
+        <v>0.03079675185731258</v>
       </c>
       <c r="D54">
-        <v>-0.01271500710015704</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.01386299643355623</v>
+      </c>
+      <c r="E54">
+        <v>0.02254651662886478</v>
+      </c>
+      <c r="F54">
+        <v>-0.0481974358593182</v>
+      </c>
+      <c r="G54">
+        <v>-0.00691937252926551</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.1207865158463105</v>
+        <v>0.1171383951439871</v>
       </c>
       <c r="C55">
-        <v>-0.005382282627906139</v>
+        <v>0.01121365138851843</v>
       </c>
       <c r="D55">
-        <v>-0.06689179230886171</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.06869617365791461</v>
+      </c>
+      <c r="E55">
+        <v>0.04603898204091211</v>
+      </c>
+      <c r="F55">
+        <v>0.03774355297628595</v>
+      </c>
+      <c r="G55">
+        <v>-0.06855170559055496</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1811601129663066</v>
+        <v>0.1733109355108258</v>
       </c>
       <c r="C56">
-        <v>0.007191192260417065</v>
+        <v>-0.005975908918734413</v>
       </c>
       <c r="D56">
-        <v>-0.04749251063292302</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05678573967695015</v>
+      </c>
+      <c r="E56">
+        <v>0.03338914917711651</v>
+      </c>
+      <c r="F56">
+        <v>0.149338382227018</v>
+      </c>
+      <c r="G56">
+        <v>-0.06611408992545</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +2002,433 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.04408988197174903</v>
+        <v>0.04446279801392909</v>
       </c>
       <c r="C58">
-        <v>-0.09346230711137686</v>
+        <v>0.1008011661592367</v>
       </c>
       <c r="D58">
-        <v>0.0007943493692741613</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.002406986619406195</v>
+      </c>
+      <c r="E58">
+        <v>0.04683271965309905</v>
+      </c>
+      <c r="F58">
+        <v>-0.04457341997187089</v>
+      </c>
+      <c r="G58">
+        <v>-0.02477927419082091</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1869009124174331</v>
+        <v>0.1898137940169882</v>
       </c>
       <c r="C59">
-        <v>0.1784612523972869</v>
+        <v>-0.1826928033289261</v>
       </c>
       <c r="D59">
-        <v>0.08085556517166008</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.08204640679295172</v>
+      </c>
+      <c r="E59">
+        <v>0.01172856552256903</v>
+      </c>
+      <c r="F59">
+        <v>-0.05113941748632753</v>
+      </c>
+      <c r="G59">
+        <v>-0.03938139347696812</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.2154837620864801</v>
+        <v>0.210339643653161</v>
       </c>
       <c r="C60">
-        <v>-0.01124979032011634</v>
+        <v>0.01873348154055161</v>
       </c>
       <c r="D60">
-        <v>0.06221731167336863</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.04197168674334081</v>
+      </c>
+      <c r="E60">
+        <v>0.007081493645940675</v>
+      </c>
+      <c r="F60">
+        <v>0.2099070636641941</v>
+      </c>
+      <c r="G60">
+        <v>-0.08089016425476954</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.06482879772274944</v>
+        <v>0.06220929799777748</v>
       </c>
       <c r="C61">
-        <v>-0.1223425412583619</v>
+        <v>0.1204379596547495</v>
       </c>
       <c r="D61">
-        <v>-0.03589191268689911</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.02832019918474761</v>
+      </c>
+      <c r="E61">
+        <v>0.02978132506669097</v>
+      </c>
+      <c r="F61">
+        <v>-0.08128406756902701</v>
+      </c>
+      <c r="G61">
+        <v>-0.02618433254600781</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>0.1683568101516101</v>
+        <v>0.1646812692116344</v>
       </c>
       <c r="C62">
-        <v>0.01162218191941009</v>
+        <v>-0.008254568819542313</v>
       </c>
       <c r="D62">
-        <v>-0.03881729735759427</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.05034188994363829</v>
+      </c>
+      <c r="E62">
+        <v>0.03443562995685571</v>
+      </c>
+      <c r="F62">
+        <v>0.120377177853919</v>
+      </c>
+      <c r="G62">
+        <v>-0.0593765292188619</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.03776374949239159</v>
+        <v>0.04315843193952348</v>
       </c>
       <c r="C63">
-        <v>-0.06826382729843854</v>
+        <v>0.07187407980817787</v>
       </c>
       <c r="D63">
-        <v>-0.03011160750854156</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02359296995078784</v>
+      </c>
+      <c r="E63">
+        <v>0.03186640362520735</v>
+      </c>
+      <c r="F63">
+        <v>-0.05054740900428731</v>
+      </c>
+      <c r="G63">
+        <v>0.023854125412725</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.111252451484457</v>
+        <v>0.1096558636439406</v>
       </c>
       <c r="C64">
-        <v>-0.04939293356129583</v>
+        <v>0.05296266566016032</v>
       </c>
       <c r="D64">
-        <v>-0.036716558084764</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.03923038562138768</v>
+      </c>
+      <c r="E64">
+        <v>0.01473977733321957</v>
+      </c>
+      <c r="F64">
+        <v>0.03697975490411129</v>
+      </c>
+      <c r="G64">
+        <v>-0.002712490157869216</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.1563123314646049</v>
+        <v>0.159847856141539</v>
       </c>
       <c r="C65">
-        <v>0.05945730217314671</v>
+        <v>-0.04929058672743757</v>
       </c>
       <c r="D65">
-        <v>-0.04788595263653928</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.05533864028696876</v>
+      </c>
+      <c r="E65">
+        <v>-0.01031426807110954</v>
+      </c>
+      <c r="F65">
+        <v>0.01244029522587912</v>
+      </c>
+      <c r="G65">
+        <v>-0.02231993889241489</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.1022280843138822</v>
+        <v>0.09547738832374422</v>
       </c>
       <c r="C66">
-        <v>-0.1301141213847185</v>
+        <v>0.1300556548080285</v>
       </c>
       <c r="D66">
-        <v>-0.04788242327275258</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.03667141614458514</v>
+      </c>
+      <c r="E66">
+        <v>0.01140711703053315</v>
+      </c>
+      <c r="F66">
+        <v>-0.1025771600653869</v>
+      </c>
+      <c r="G66">
+        <v>-0.006085398600522087</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05831931643913386</v>
+        <v>0.04925266421677534</v>
       </c>
       <c r="C67">
-        <v>-0.08002626782480307</v>
+        <v>0.07362961114887151</v>
       </c>
       <c r="D67">
-        <v>0.0440989279767852</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.04881393941327083</v>
+      </c>
+      <c r="E67">
+        <v>0.0840273683632726</v>
+      </c>
+      <c r="F67">
+        <v>0.03993252260583692</v>
+      </c>
+      <c r="G67">
+        <v>0.002670848682967276</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1388878243104459</v>
+        <v>0.1415487852445376</v>
       </c>
       <c r="C68">
-        <v>0.2468285816365454</v>
+        <v>-0.24985403403905</v>
       </c>
       <c r="D68">
-        <v>0.0500835439019072</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.04748763922662443</v>
+      </c>
+      <c r="E68">
+        <v>-0.1010541911457179</v>
+      </c>
+      <c r="F68">
+        <v>-0.1202411356441482</v>
+      </c>
+      <c r="G68">
+        <v>-0.02752273732489069</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.03892336828505689</v>
+        <v>0.03844647564555156</v>
       </c>
       <c r="C69">
-        <v>-0.01217677843465148</v>
+        <v>0.01427079550363889</v>
       </c>
       <c r="D69">
-        <v>-0.01071035302871954</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.0118638998094348</v>
+      </c>
+      <c r="E69">
+        <v>0.06144750464254394</v>
+      </c>
+      <c r="F69">
+        <v>0.0445005927249023</v>
+      </c>
+      <c r="G69">
+        <v>0.023342282883006</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>0.07017777016937221</v>
+        <v>0.0715082206847775</v>
       </c>
       <c r="C70">
-        <v>-0.08058785557601141</v>
+        <v>0.07519543057511939</v>
       </c>
       <c r="D70">
-        <v>0.5064069350883977</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.4111866435636897</v>
+      </c>
+      <c r="E70">
+        <v>0.2078177348599423</v>
+      </c>
+      <c r="F70">
+        <v>0.3902087485761975</v>
+      </c>
+      <c r="G70">
+        <v>-0.416062125984072</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1614484842979808</v>
+        <v>0.1652686217937047</v>
       </c>
       <c r="C71">
-        <v>0.2538486255880668</v>
+        <v>-0.2540859753651514</v>
       </c>
       <c r="D71">
-        <v>0.05118029993750177</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.05080905687814103</v>
+      </c>
+      <c r="E71">
+        <v>-0.1109034675673647</v>
+      </c>
+      <c r="F71">
+        <v>-0.1220550423196969</v>
+      </c>
+      <c r="G71">
+        <v>-0.02843603686938739</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.1440790175519296</v>
+        <v>0.1492126753133836</v>
       </c>
       <c r="C72">
-        <v>-0.01104499064200639</v>
+        <v>0.00835942932480362</v>
       </c>
       <c r="D72">
-        <v>-0.07453995680635447</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.06524323428679027</v>
+      </c>
+      <c r="E72">
+        <v>0.04192982332719822</v>
+      </c>
+      <c r="F72">
+        <v>0.0253365994990295</v>
+      </c>
+      <c r="G72">
+        <v>0.01324439359799618</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.1907297704462057</v>
+        <v>0.1988669360016027</v>
       </c>
       <c r="C73">
-        <v>-0.01866707828567749</v>
+        <v>0.02890375916849703</v>
       </c>
       <c r="D73">
-        <v>-0.06513776621994881</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.0714505795445966</v>
+      </c>
+      <c r="E73">
+        <v>0.05858394817697551</v>
+      </c>
+      <c r="F73">
+        <v>0.1035323206558782</v>
+      </c>
+      <c r="G73">
+        <v>0.01667537564472978</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.08652963731396629</v>
+        <v>0.08572732545502466</v>
       </c>
       <c r="C74">
-        <v>-0.003213287101992036</v>
+        <v>0.01007492141163575</v>
       </c>
       <c r="D74">
-        <v>-0.07517332342973645</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.08048289306860396</v>
+      </c>
+      <c r="E74">
+        <v>0.01939663084667878</v>
+      </c>
+      <c r="F74">
+        <v>0.06395275613258301</v>
+      </c>
+      <c r="G74">
+        <v>0.003662438341715708</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.1245604990404103</v>
+        <v>0.1165760602829625</v>
       </c>
       <c r="C75">
-        <v>-0.0185215152134719</v>
+        <v>0.02229587211912468</v>
       </c>
       <c r="D75">
-        <v>-0.06136553220708196</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.06050027945246247</v>
+      </c>
+      <c r="E75">
+        <v>0.05775060777280704</v>
+      </c>
+      <c r="F75">
+        <v>0.06192982242234493</v>
+      </c>
+      <c r="G75">
+        <v>-0.04211617536230076</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2439,594 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.07220527429675466</v>
+        <v>0.08658537149471686</v>
       </c>
       <c r="C77">
-        <v>-0.1138874414675222</v>
+        <v>0.1128048900405677</v>
       </c>
       <c r="D77">
-        <v>-0.06967390081555265</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.07484519797819857</v>
+      </c>
+      <c r="E77">
+        <v>-0.01266694988922609</v>
+      </c>
+      <c r="F77">
+        <v>-0.08535480865570216</v>
+      </c>
+      <c r="G77">
+        <v>-0.1112984833281588</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.09045726021914341</v>
+        <v>0.09435499113251258</v>
       </c>
       <c r="C78">
-        <v>-0.1288883618317431</v>
+        <v>0.1281039582299723</v>
       </c>
       <c r="D78">
-        <v>-0.07697054339516791</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.05840150769874281</v>
+      </c>
+      <c r="E78">
+        <v>-0.003649247227558482</v>
+      </c>
+      <c r="F78">
+        <v>-0.1183024251735948</v>
+      </c>
+      <c r="G78">
+        <v>-0.08443984339223927</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.1675883162037673</v>
+        <v>0.1624859836549709</v>
       </c>
       <c r="C79">
-        <v>-0.0161520296971629</v>
+        <v>0.01726790932367567</v>
       </c>
       <c r="D79">
-        <v>-0.03288836547047731</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.03490988926161406</v>
+      </c>
+      <c r="E79">
+        <v>0.03643540322388931</v>
+      </c>
+      <c r="F79">
+        <v>0.05348151854727037</v>
+      </c>
+      <c r="G79">
+        <v>-0.04287281192563434</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.0751797348830994</v>
+        <v>0.07320205359045796</v>
       </c>
       <c r="C80">
-        <v>-0.05787927052004022</v>
+        <v>0.05650018012601134</v>
       </c>
       <c r="D80">
-        <v>-0.01104771551479536</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.005307152561861269</v>
+      </c>
+      <c r="E80">
+        <v>0.06137825863647235</v>
+      </c>
+      <c r="F80">
+        <v>-0.1079791629307277</v>
+      </c>
+      <c r="G80">
+        <v>0.09661158915651399</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1114976688853389</v>
+        <v>0.1052549267804388</v>
       </c>
       <c r="C81">
-        <v>0.01653090407178288</v>
+        <v>-0.01326313069592834</v>
       </c>
       <c r="D81">
-        <v>-0.03003585982160029</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.03213801678185488</v>
+      </c>
+      <c r="E81">
+        <v>0.0609274517274362</v>
+      </c>
+      <c r="F81">
+        <v>0.06773799493406633</v>
+      </c>
+      <c r="G81">
+        <v>-0.00679955328620228</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1607890207116853</v>
+        <v>0.157113601654032</v>
       </c>
       <c r="C82">
-        <v>0.02512485734961604</v>
+        <v>-0.01868859571686805</v>
       </c>
       <c r="D82">
-        <v>-0.08888796153040832</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.09735248421735021</v>
+      </c>
+      <c r="E82">
+        <v>0.0006033045280322748</v>
+      </c>
+      <c r="F82">
+        <v>0.1029661012313467</v>
+      </c>
+      <c r="G82">
+        <v>0.00290475583974436</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.0531263812557234</v>
+        <v>0.04926773883340895</v>
       </c>
       <c r="C83">
-        <v>-0.05990367244461955</v>
+        <v>0.05571946526431264</v>
       </c>
       <c r="D83">
-        <v>0.009787809484780851</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.01249375324480182</v>
+      </c>
+      <c r="E83">
+        <v>0.0140628050917854</v>
+      </c>
+      <c r="F83">
+        <v>-0.003514185868796271</v>
+      </c>
+      <c r="G83">
+        <v>-0.01627696777868999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0.05108018579617341</v>
+        <v>0.04829506946756634</v>
       </c>
       <c r="C84">
-        <v>-0.0727084210198506</v>
+        <v>0.07033301779219811</v>
       </c>
       <c r="D84">
-        <v>-0.001777886673237147</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.001750274767368245</v>
+      </c>
+      <c r="E84">
+        <v>0.01201773357682826</v>
+      </c>
+      <c r="F84">
+        <v>0.01718910630730477</v>
+      </c>
+      <c r="G84">
+        <v>-0.03043594450783304</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1403719642627399</v>
+        <v>0.134407970155644</v>
       </c>
       <c r="C85">
-        <v>-0.006339481964815802</v>
+        <v>0.00960687424523235</v>
       </c>
       <c r="D85">
-        <v>-0.09283566302158532</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.09151833655817092</v>
+      </c>
+      <c r="E85">
+        <v>0.01746425072404139</v>
+      </c>
+      <c r="F85">
+        <v>0.04472161339898958</v>
+      </c>
+      <c r="G85">
+        <v>-0.02925591399229815</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.08276347787722083</v>
+        <v>0.08082677298933059</v>
       </c>
       <c r="C86">
-        <v>-0.1006459479214661</v>
+        <v>0.1018993447486371</v>
       </c>
       <c r="D86">
-        <v>0.4767223969176924</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.5586660514024037</v>
+      </c>
+      <c r="E86">
+        <v>0.487626829846319</v>
+      </c>
+      <c r="F86">
+        <v>-0.4586775239858195</v>
+      </c>
+      <c r="G86">
+        <v>0.08040929991106271</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.08891999003030855</v>
+        <v>0.08754313135484307</v>
       </c>
       <c r="C87">
-        <v>-0.08584822818292175</v>
+        <v>0.08689059678992887</v>
       </c>
       <c r="D87">
-        <v>-0.04743752466995873</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.03700156307384495</v>
+      </c>
+      <c r="E87">
+        <v>-0.100252305964228</v>
+      </c>
+      <c r="F87">
+        <v>-0.09896228015944837</v>
+      </c>
+      <c r="G87">
+        <v>0.05683166849667366</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.0609375728007573</v>
+        <v>0.06038824337972098</v>
       </c>
       <c r="C88">
-        <v>-0.05928159132703197</v>
+        <v>0.05982693018951698</v>
       </c>
       <c r="D88">
-        <v>-0.01693709011938684</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01828295478105585</v>
+      </c>
+      <c r="E88">
+        <v>0.01384627095322815</v>
+      </c>
+      <c r="F88">
+        <v>0.02692062312991262</v>
+      </c>
+      <c r="G88">
+        <v>-0.0126799628633595</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1480710519704352</v>
+        <v>0.1498781102091852</v>
       </c>
       <c r="C89">
-        <v>0.195119446703198</v>
+        <v>-0.206829961270703</v>
       </c>
       <c r="D89">
-        <v>0.02599571104001147</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.03328124687780422</v>
+      </c>
+      <c r="E89">
+        <v>-0.08882964139310984</v>
+      </c>
+      <c r="F89">
+        <v>-0.09430919105381504</v>
+      </c>
+      <c r="G89">
+        <v>0.002539510215983652</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1759741982518399</v>
+        <v>0.1826273915682408</v>
       </c>
       <c r="C90">
-        <v>0.2300633868574729</v>
+        <v>-0.238349832972417</v>
       </c>
       <c r="D90">
-        <v>0.06802156813897854</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.0715201037321249</v>
+      </c>
+      <c r="E90">
+        <v>-0.1360734671311758</v>
+      </c>
+      <c r="F90">
+        <v>-0.1403382870194163</v>
+      </c>
+      <c r="G90">
+        <v>-0.01034263788666399</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1269792154690737</v>
+        <v>0.1211409839555495</v>
       </c>
       <c r="C91">
-        <v>0.02232640328797812</v>
+        <v>-0.02048024988741437</v>
       </c>
       <c r="D91">
-        <v>-0.02834600040100654</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.02540914937914903</v>
+      </c>
+      <c r="E91">
+        <v>0.09438485083430964</v>
+      </c>
+      <c r="F91">
+        <v>0.1007267177331758</v>
+      </c>
+      <c r="G91">
+        <v>0.007856481727539388</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1703151442277702</v>
+        <v>0.1727716247603212</v>
       </c>
       <c r="C92">
-        <v>0.2659313589452727</v>
+        <v>-0.2777158839577371</v>
       </c>
       <c r="D92">
-        <v>0.06775877644456436</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.06070641185392411</v>
+      </c>
+      <c r="E92">
+        <v>-0.0899045296219419</v>
+      </c>
+      <c r="F92">
+        <v>-0.1784241131820889</v>
+      </c>
+      <c r="G92">
+        <v>-0.06416029046182567</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1765497341785588</v>
+        <v>0.1838237539459927</v>
       </c>
       <c r="C93">
-        <v>0.2230232073715682</v>
+        <v>-0.2297841017659443</v>
       </c>
       <c r="D93">
-        <v>0.03696439733599843</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.03415026781875302</v>
+      </c>
+      <c r="E93">
+        <v>-0.0659258350504844</v>
+      </c>
+      <c r="F93">
+        <v>-0.09327079395011166</v>
+      </c>
+      <c r="G93">
+        <v>-0.06758981954657116</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1198817917905296</v>
+        <v>0.1138706618274183</v>
       </c>
       <c r="C94">
-        <v>-0.03292880461582792</v>
+        <v>0.03334159827703887</v>
       </c>
       <c r="D94">
-        <v>-0.05547928618466763</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.05365417275720934</v>
+      </c>
+      <c r="E94">
+        <v>0.0574378231240171</v>
+      </c>
+      <c r="F94">
+        <v>0.05841465529116549</v>
+      </c>
+      <c r="G94">
+        <v>-0.03723959615305183</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1204801147109446</v>
+        <v>0.1229957713851413</v>
       </c>
       <c r="C95">
-        <v>-0.1105688014510296</v>
+        <v>0.1171291061351411</v>
       </c>
       <c r="D95">
-        <v>-0.01214727333001222</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.01369206906077633</v>
+      </c>
+      <c r="E95">
+        <v>0.0471515081567536</v>
+      </c>
+      <c r="F95">
+        <v>-0.056181780564717</v>
+      </c>
+      <c r="G95">
+        <v>-0.006486883876938359</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
-        <v>0.1190844080238392</v>
+        <v>0.1175635973228323</v>
       </c>
       <c r="C96">
-        <v>-0.1220745307402054</v>
+        <v>0.1289481796947166</v>
       </c>
       <c r="D96">
-        <v>0.02246363056682841</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.001099076551388087</v>
+      </c>
+      <c r="E96">
+        <v>0.03991515358519173</v>
+      </c>
+      <c r="F96">
+        <v>0.1071894773362608</v>
+      </c>
+      <c r="G96">
+        <v>-0.07316866599328463</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>0.1913289610207188</v>
+        <v>0.1960716663543951</v>
       </c>
       <c r="C97">
-        <v>0.001042272468426354</v>
+        <v>-0.00368239407396606</v>
       </c>
       <c r="D97">
-        <v>0.1126228563095501</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.1518399721678572</v>
+      </c>
+      <c r="E97">
+        <v>0.09864181009539953</v>
+      </c>
+      <c r="F97">
+        <v>0.2879707742787306</v>
+      </c>
+      <c r="G97">
+        <v>0.8283633718173301</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1990866747753014</v>
+        <v>0.204585762874092</v>
       </c>
       <c r="C98">
-        <v>-0.02663286191399021</v>
+        <v>0.03151738761209119</v>
       </c>
       <c r="D98">
-        <v>0.1182309928614454</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1050061308062095</v>
+      </c>
+      <c r="E98">
+        <v>-0.02572994033495019</v>
+      </c>
+      <c r="F98">
+        <v>0.1004861330625966</v>
+      </c>
+      <c r="G98">
+        <v>-0.00888437692286825</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>0.05452048025640038</v>
+        <v>0.05393388089688291</v>
       </c>
       <c r="C99">
-        <v>-0.05190040594956001</v>
+        <v>0.05353929289610825</v>
       </c>
       <c r="D99">
-        <v>-0.004596285540958825</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.003577023623278816</v>
+      </c>
+      <c r="E99">
+        <v>0.007448881018161328</v>
+      </c>
+      <c r="F99">
+        <v>-0.03459673233813189</v>
+      </c>
+      <c r="G99">
+        <v>0.01057970131496373</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
-        <v>0.1170086740243917</v>
+        <v>0.1092406369518666</v>
       </c>
       <c r="C100">
-        <v>-0.4120824873067017</v>
+        <v>0.3761658972162709</v>
       </c>
       <c r="D100">
-        <v>0.4478859173137457</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.4690117518086591</v>
+      </c>
+      <c r="E100">
+        <v>-0.7187073216071806</v>
+      </c>
+      <c r="F100">
+        <v>0.02918512944938335</v>
+      </c>
+      <c r="G100">
+        <v>0.03386269627907806</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.0241120210818778</v>
+        <v>0.0273159483753988</v>
       </c>
       <c r="C101">
-        <v>-0.04611182182711677</v>
+        <v>0.04359366129644956</v>
       </c>
       <c r="D101">
-        <v>-0.007153328696636211</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.004539665747075526</v>
+      </c>
+      <c r="E101">
+        <v>0.02975531303844012</v>
+      </c>
+      <c r="F101">
+        <v>-0.06956770773183168</v>
+      </c>
+      <c r="G101">
+        <v>-0.004691505530274748</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3037,19 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
